--- a/data/trans_dic/P23_R2-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P23_R2-Dificultad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3677735199680323</v>
+        <v>0.3670003362070903</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4125922812483261</v>
+        <v>0.4124234743091967</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.406372199816317</v>
+        <v>0.4056636403610246</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3298825569731327</v>
+        <v>0.329368875985713</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.202185239455938</v>
+        <v>0.2011996769629326</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2833151344538926</v>
+        <v>0.2846970635859755</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2893356774491858</v>
+        <v>0.2899570417711723</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2070938897737542</v>
+        <v>0.203694084951034</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2728832898117556</v>
+        <v>0.2750578902847819</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.3523567400737023</v>
+        <v>0.3522184290529337</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.3541136488813804</v>
+        <v>0.3532697797768709</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2727754926104542</v>
+        <v>0.2704946320609251</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4470879900209457</v>
+        <v>0.4479186022934473</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4772146060716897</v>
+        <v>0.4732763690173773</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4651368960459632</v>
+        <v>0.4650240750346946</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4257851733808212</v>
+        <v>0.4270040602663285</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.256777890739575</v>
+        <v>0.2572595665309235</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3398322112304376</v>
+        <v>0.3390998567317186</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3445951772571324</v>
+        <v>0.3406537455966779</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2642650977466133</v>
+        <v>0.2641494528059115</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3202181051033779</v>
+        <v>0.3211798698642048</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3954178094289924</v>
+        <v>0.3974123560246106</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3951129433754341</v>
+        <v>0.3922780972031483</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3272137784224405</v>
+        <v>0.3247567665858586</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.403671945938873</v>
+        <v>0.4029432822550522</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3540843712829021</v>
+        <v>0.3511248721313458</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3284946716353431</v>
+        <v>0.3259815027053218</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2309747146960367</v>
+        <v>0.2300658340650064</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2278801153959134</v>
+        <v>0.2275560111300352</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2381543545583711</v>
+        <v>0.2369592987809476</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2350066778356892</v>
+        <v>0.234718284825258</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1771439663030768</v>
+        <v>0.1764960470033874</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.3262741799501109</v>
+        <v>0.3249157071991062</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.3013180601527154</v>
+        <v>0.2987109662822146</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2851059165418576</v>
+        <v>0.286857945126154</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2094598605811264</v>
+        <v>0.2092761136223507</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4638269196130653</v>
+        <v>0.4653893979264275</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4187527786568682</v>
+        <v>0.4168710834194917</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3908149914609225</v>
+        <v>0.3889577955281822</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2951167991181999</v>
+        <v>0.2973852682702848</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2829583342440287</v>
+        <v>0.2812526786902415</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2958059657845325</v>
+        <v>0.2899356837993767</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2898080542537183</v>
+        <v>0.2897475758713009</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2181374116749341</v>
+        <v>0.2206570003058645</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3669937318140413</v>
+        <v>0.3676127336803323</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.342923416995675</v>
+        <v>0.3398985159639155</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3277858657524362</v>
+        <v>0.328056601352314</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2462530584291151</v>
+        <v>0.2472457096534826</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.35738487361148</v>
+        <v>0.3561611753028621</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.277734290291498</v>
+        <v>0.2751915318597116</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2436114252374927</v>
+        <v>0.2415202719129201</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2083085690613595</v>
+        <v>0.2050827305500413</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2152699961348938</v>
+        <v>0.2130250762738354</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2173885382386384</v>
+        <v>0.2142569114311008</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1838007753723148</v>
+        <v>0.1829718522465923</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1517869597162724</v>
+        <v>0.151490919482648</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2963543051939821</v>
+        <v>0.2967882780000429</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2554000159659113</v>
+        <v>0.2543950918970339</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2216730064994028</v>
+        <v>0.2227214070281185</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1865865674329229</v>
+        <v>0.1876552827763308</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4116652424125585</v>
+        <v>0.4121460949633525</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3417724287700335</v>
+        <v>0.3422183882218175</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.308375030441744</v>
+        <v>0.3068778583128914</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2642814307002025</v>
+        <v>0.2641613407420326</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2683817147294235</v>
+        <v>0.266653054784574</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2777630657042253</v>
+        <v>0.2760801649062811</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.242251537331848</v>
+        <v>0.244576184411453</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1936145191546766</v>
+        <v>0.1933297257261206</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.337630669111802</v>
+        <v>0.3349527593176204</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3019992238485574</v>
+        <v>0.3011789116204736</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2672509145290448</v>
+        <v>0.2676312608523251</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2210465127849826</v>
+        <v>0.2225477213253867</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3030010662252549</v>
+        <v>0.3034049116076659</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2426516850074866</v>
+        <v>0.2503395882705026</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2141781222019306</v>
+        <v>0.2148958072402475</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1785532240233393</v>
+        <v>0.1787036312541325</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2339184232831147</v>
+        <v>0.2377925409739163</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.19112643499659</v>
+        <v>0.1921412938318731</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.152491442039641</v>
+        <v>0.1539197231765556</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1502983228858855</v>
+        <v>0.1516930781685701</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2876532709440097</v>
+        <v>0.2885731084806694</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2292699424841342</v>
+        <v>0.2314023822710468</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1948470044801549</v>
+        <v>0.194848909059489</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.172481701740004</v>
+        <v>0.1727661322456187</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.395968561611879</v>
+        <v>0.3936587195987548</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3307201863524208</v>
+        <v>0.3349827079128208</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.293570144884684</v>
+        <v>0.2931385444441461</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2409429099715397</v>
+        <v>0.2400505303295179</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3343630916630982</v>
+        <v>0.3390018324650458</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2751941968662394</v>
+        <v>0.2726742332710871</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2267973905559016</v>
+        <v>0.2264952946027251</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1966891971896267</v>
+        <v>0.2002692754485267</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3529243830149693</v>
+        <v>0.355081119929169</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2890732374909191</v>
+        <v>0.29054059973636</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2492273434089148</v>
+        <v>0.2458662092624142</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2138459043477817</v>
+        <v>0.2114596305703131</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.3467947091024365</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.2559092570525816</v>
+        <v>0.2559092570525817</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.245882615001169</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3826800682753814</v>
+        <v>0.3836602476791769</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3506902415368237</v>
+        <v>0.3496309133437707</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.330088042222586</v>
+        <v>0.3303193424909384</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2394764436179216</v>
+        <v>0.2407042721667453</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2317788510294019</v>
+        <v>0.2317997983168506</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2544904744281433</v>
+        <v>0.2546448231370066</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2449970746807334</v>
+        <v>0.2460357321135959</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.179891592975354</v>
+        <v>0.1793572353453868</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.310399224835131</v>
+        <v>0.310085307107643</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.3069902664596366</v>
+        <v>0.3068162412544616</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.291568033669645</v>
+        <v>0.2904954449009193</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2121611729053158</v>
+        <v>0.2118844046516752</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4175613550979681</v>
+        <v>0.417431682268326</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3853512408000699</v>
+        <v>0.3844124134998196</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3640690329668763</v>
+        <v>0.3637427981879039</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2718254384342607</v>
+        <v>0.27258502222372</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2609735622176268</v>
+        <v>0.2610474962260422</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.285632784780425</v>
+        <v>0.2870705038454004</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2748483405068989</v>
+        <v>0.2763091882495922</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2028957942067329</v>
+        <v>0.2028329443416232</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3339381697276176</v>
+        <v>0.3336357483760278</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3303385801574498</v>
+        <v>0.3299094000765236</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3136828476348661</v>
+        <v>0.3135289535178177</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2319918362859583</v>
+        <v>0.2322341699280495</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>214832</v>
+        <v>214380</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>430295</v>
+        <v>430119</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>458387</v>
+        <v>457587</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>164525</v>
+        <v>164269</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>186482</v>
+        <v>185573</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>317293</v>
+        <v>318840</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>364115</v>
+        <v>364897</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>129140</v>
+        <v>127020</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>411092</v>
+        <v>414368</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>762089</v>
+        <v>761790</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>845074</v>
+        <v>843060</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>306141</v>
+        <v>303582</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>261162</v>
+        <v>261648</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>497689</v>
+        <v>493582</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>524673</v>
+        <v>524546</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>212356</v>
+        <v>212964</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>236835</v>
+        <v>237279</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>380588</v>
+        <v>379767</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>433656</v>
+        <v>428696</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>164790</v>
+        <v>164718</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>482400</v>
+        <v>483849</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>855223</v>
+        <v>859537</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>942917</v>
+        <v>936152</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>367239</v>
+        <v>364481</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>435116</v>
+        <v>434330</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>345966</v>
+        <v>343075</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>298544</v>
+        <v>296260</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>221767</v>
+        <v>220895</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>240992</v>
+        <v>240649</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>260603</v>
+        <v>259296</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>235767</v>
+        <v>235478</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>197666</v>
+        <v>196943</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>696736</v>
+        <v>693835</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>624131</v>
+        <v>618730</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>545140</v>
+        <v>548490</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>434836</v>
+        <v>434454</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>499956</v>
+        <v>501640</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>409152</v>
+        <v>407313</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>355182</v>
+        <v>353495</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>283353</v>
+        <v>285531</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>299239</v>
+        <v>297435</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>323689</v>
+        <v>317266</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>290746</v>
+        <v>290685</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>243408</v>
+        <v>246220</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>783690</v>
+        <v>785012</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>710309</v>
+        <v>704044</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>626746</v>
+        <v>627264</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>511218</v>
+        <v>513279</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>400841</v>
+        <v>399468</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>245827</v>
+        <v>243576</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>200205</v>
+        <v>198487</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>217991</v>
+        <v>214615</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>213965</v>
+        <v>211734</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>189957</v>
+        <v>187221</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>141521</v>
+        <v>140883</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>159018</v>
+        <v>158708</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>626948</v>
+        <v>627866</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>449230</v>
+        <v>447463</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>352858</v>
+        <v>354526</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>390735</v>
+        <v>392973</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>461721</v>
+        <v>462261</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>302508</v>
+        <v>302903</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>253430</v>
+        <v>252199</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>276565</v>
+        <v>276439</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>266755</v>
+        <v>265037</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>242713</v>
+        <v>241243</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>186526</v>
+        <v>188316</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>202839</v>
+        <v>202540</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>714269</v>
+        <v>708604</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>531195</v>
+        <v>529752</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>425408</v>
+        <v>426014</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>462898</v>
+        <v>466042</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>135502</v>
+        <v>135683</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>122059</v>
+        <v>125927</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>108524</v>
+        <v>108888</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>174051</v>
+        <v>174198</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>79803</v>
+        <v>81125</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>86530</v>
+        <v>86989</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>74675</v>
+        <v>75374</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>135985</v>
+        <v>137247</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>226774</v>
+        <v>227499</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>219127</v>
+        <v>221165</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>194145</v>
+        <v>194147</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>324189</v>
+        <v>324724</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>177077</v>
+        <v>176044</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>166360</v>
+        <v>168504</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>148752</v>
+        <v>148534</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>234868</v>
+        <v>233998</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>114071</v>
+        <v>115653</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>124590</v>
+        <v>123449</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>111062</v>
+        <v>110914</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>177958</v>
+        <v>181198</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>278231</v>
+        <v>279931</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>276284</v>
+        <v>277687</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>248330</v>
+        <v>244981</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>401936</v>
+        <v>397451</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1236374</v>
+        <v>1239541</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1195193</v>
+        <v>1191583</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1110860</v>
+        <v>1111639</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>833412</v>
+        <v>837685</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>768340</v>
+        <v>768409</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>901085</v>
+        <v>901631</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>862721</v>
+        <v>866379</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>664131</v>
+        <v>662158</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>2031811</v>
+        <v>2029756</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>2133231</v>
+        <v>2132022</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>2007942</v>
+        <v>2000555</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1521617</v>
+        <v>1519632</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>1349069</v>
+        <v>1348650</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>1313322</v>
+        <v>1310122</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1225218</v>
+        <v>1224120</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>945991</v>
+        <v>948635</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>865119</v>
+        <v>865364</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1011351</v>
+        <v>1016442</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>967838</v>
+        <v>972982</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>749059</v>
+        <v>748827</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>2185892</v>
+        <v>2183912</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>2295475</v>
+        <v>2292493</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>2160240</v>
+        <v>2159180</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1663842</v>
+        <v>1665580</v>
       </c>
     </row>
     <row r="24">
